--- a/myapp/files/9_MethodComparePercent/Scenario 357.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 357.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>3379</v>
+        <v>11703</v>
       </c>
       <c r="F2" t="n">
-        <v>4.25915421944917</v>
+        <v>1.74340395040468</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>5.35714285714286</v>
+        <v>2.23642172523962</v>
       </c>
       <c r="K2" t="n">
         <v>3</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>3497</v>
+        <v>17026</v>
       </c>
       <c r="F3" t="n">
-        <v>4.40789059053381</v>
+        <v>2.53637491750748</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>3.57142857142857</v>
+        <v>1.91693290734824</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>2957</v>
+        <v>18010</v>
       </c>
       <c r="F4" t="n">
-        <v>3.72723262116342</v>
+        <v>2.68296207355279</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>3.57142857142857</v>
+        <v>2.87539936102236</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>5241</v>
+        <v>21233</v>
       </c>
       <c r="F5" t="n">
-        <v>6.60616373605597</v>
+        <v>3.16309459787598</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -707,10 +707,10 @@
         <v>2.66666666666667</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>3.57142857142857</v>
+        <v>3.19488817891374</v>
       </c>
       <c r="K5" t="n">
         <v>4</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>304</v>
+        <v>9566</v>
       </c>
       <c r="F6" t="n">
-        <v>0.383185227201109</v>
+        <v>1.42505359220466</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>1.78571428571429</v>
+        <v>2.23642172523962</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>240</v>
+        <v>7090</v>
       </c>
       <c r="F7" t="n">
-        <v>0.302514653053507</v>
+        <v>1.05620217109879</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.78571428571429</v>
+        <v>1.59744408945687</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>4860</v>
+        <v>24728</v>
       </c>
       <c r="F8" t="n">
-        <v>6.12592172433352</v>
+        <v>3.68374714907348</v>
       </c>
       <c r="G8" t="n">
         <v>4</v>
@@ -821,10 +821,10 @@
         <v>5.33333333333333</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>1.78571428571429</v>
+        <v>2.87539936102236</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>4929</v>
+        <v>32509</v>
       </c>
       <c r="F9" t="n">
-        <v>6.21289468708641</v>
+        <v>4.84288806491547</v>
       </c>
       <c r="G9" t="n">
         <v>6</v>
@@ -859,10 +859,10 @@
         <v>8</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>3.57142857142857</v>
+        <v>4.79233226837061</v>
       </c>
       <c r="K9" t="n">
         <v>5</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>1608</v>
+        <v>37668</v>
       </c>
       <c r="F10" t="n">
-        <v>2.0268481754585</v>
+        <v>5.61142783934405</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
@@ -897,10 +897,10 @@
         <v>5.33333333333333</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="J10" t="n">
-        <v>3.57142857142857</v>
+        <v>6.70926517571885</v>
       </c>
       <c r="K10" t="n">
         <v>6</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>3705</v>
+        <v>26195</v>
       </c>
       <c r="F11" t="n">
-        <v>4.67006995651352</v>
+        <v>3.90228714695809</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
@@ -935,10 +935,10 @@
         <v>2.66666666666667</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J11" t="n">
-        <v>1.78571428571429</v>
+        <v>4.47284345047923</v>
       </c>
       <c r="K11" t="n">
         <v>3</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>6828</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.01717185109486</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.2779552715655</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>3366</v>
+        <v>33215</v>
       </c>
       <c r="F13" t="n">
-        <v>4.24276800907544</v>
+        <v>4.94806136996423</v>
       </c>
       <c r="G13" t="n">
         <v>5</v>
@@ -1011,10 +1011,10 @@
         <v>6.66666666666667</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J13" t="n">
-        <v>3.57142857142857</v>
+        <v>5.43130990415335</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>9958</v>
+        <v>64274</v>
       </c>
       <c r="F14" t="n">
-        <v>12.5518371462784</v>
+        <v>9.57494193867473</v>
       </c>
       <c r="G14" t="n">
         <v>9</v>
@@ -1049,16 +1049,16 @@
         <v>12</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J14" t="n">
-        <v>10.7142857142857</v>
+        <v>7.66773162939297</v>
       </c>
       <c r="K14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L14" t="n">
-        <v>14.6666666666667</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>10878</v>
+        <v>75520</v>
       </c>
       <c r="F15" t="n">
-        <v>13.7114766496502</v>
+        <v>11.2502662851031</v>
       </c>
       <c r="G15" t="n">
         <v>7</v>
@@ -1087,16 +1087,16 @@
         <v>9.33333333333333</v>
       </c>
       <c r="I15" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="J15" t="n">
-        <v>16.0714285714286</v>
+        <v>11.1821086261981</v>
       </c>
       <c r="K15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L15" t="n">
-        <v>10.6666666666667</v>
+        <v>9.33333333333333</v>
       </c>
     </row>
     <row r="16">
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>4788</v>
+        <v>37412</v>
       </c>
       <c r="F16" t="n">
-        <v>6.03516732841747</v>
+        <v>5.57329134346235</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -1125,16 +1125,16 @@
         <v>2.66666666666667</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J16" t="n">
-        <v>5.35714285714286</v>
+        <v>5.43130990415335</v>
       </c>
       <c r="K16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L16" t="n">
-        <v>8</v>
+        <v>6.66666666666667</v>
       </c>
     </row>
     <row r="17">
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>8772</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.30677086669656</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.2779552715655</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>33383</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>4.9730884453866</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
@@ -1201,10 +1201,10 @@
         <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>4.47284345047923</v>
       </c>
       <c r="K18" t="n">
         <v>2</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>1394</v>
+        <v>54603</v>
       </c>
       <c r="F19" t="n">
-        <v>1.75710594315245</v>
+        <v>8.13424642433108</v>
       </c>
       <c r="G19" t="n">
         <v>12</v>
@@ -1239,10 +1239,10 @@
         <v>16</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J19" t="n">
-        <v>3.57142857142857</v>
+        <v>5.75079872204473</v>
       </c>
       <c r="K19" t="n">
         <v>7</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>1707</v>
+        <v>56016</v>
       </c>
       <c r="F20" t="n">
-        <v>2.15163546984307</v>
+        <v>8.34474200511565</v>
       </c>
       <c r="G20" t="n">
         <v>11</v>
@@ -1277,10 +1277,10 @@
         <v>14.6666666666667</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="J20" t="n">
-        <v>7.14285714285714</v>
+        <v>7.98722044728434</v>
       </c>
       <c r="K20" t="n">
         <v>5</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>850</v>
+        <v>26628</v>
       </c>
       <c r="F21" t="n">
-        <v>1.07140606289784</v>
+        <v>3.96679145444551</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -1315,10 +1315,10 @@
         <v>2.66666666666667</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J21" t="n">
-        <v>3.57142857142857</v>
+        <v>4.15335463258786</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>5040</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.750812262671074</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.958466453674121</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>13760</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2.04983665364166</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>2.23642172523962</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>2032</v>
+        <v>17229</v>
       </c>
       <c r="F24" t="n">
-        <v>2.56129072918636</v>
+        <v>2.56661596697618</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1429,10 +1429,10 @@
         <v>1.33333333333333</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J24" t="n">
-        <v>3.57142857142857</v>
+        <v>2.87539936102236</v>
       </c>
       <c r="K24" t="n">
         <v>3</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>5732</v>
+        <v>18230</v>
       </c>
       <c r="F25" t="n">
-        <v>7.2250582970946</v>
+        <v>2.71573562470113</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -1467,10 +1467,10 @@
         <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J25" t="n">
-        <v>8.92857142857143</v>
+        <v>3.51437699680511</v>
       </c>
       <c r="K25" t="n">
         <v>2</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>7910</v>
+        <v>14635</v>
       </c>
       <c r="F26" t="n">
-        <v>9.97037877355518</v>
+        <v>2.18018600479984</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -1505,10 +1505,10 @@
         <v>2.66666666666667</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J26" t="n">
-        <v>7.14285714285714</v>
+        <v>2.87539936102236</v>
       </c>
       <c r="K26" t="n">
         <v>3</v>
